--- a/Courses/ProjectSignUp.xlsx
+++ b/Courses/ProjectSignUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\My_Work\1989chenguo.github.io\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E180C-F43A-4D14-A3FE-77B96F20AA7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559352D-3E64-410A-BA5E-74451BEA7993}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="7095" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="165">
   <si>
     <t>姓名 </t>
   </si>
@@ -506,6 +506,14 @@
   </si>
   <si>
     <t>组长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -939,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041410A3-A696-47D7-A0D7-3E745762DC13}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="16.5" customHeight="1"/>
@@ -2816,13 +2824,13 @@
     </row>
     <row r="122" spans="1:7" ht="16.5" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="C122" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="1"/>
@@ -2831,7 +2839,7 @@
     </row>
     <row r="123" spans="1:7" ht="16.5" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>4</v>
@@ -2846,7 +2854,7 @@
     </row>
     <row r="124" spans="1:7" ht="16.5" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>4</v>
@@ -2861,7 +2869,7 @@
     </row>
     <row r="125" spans="1:7" ht="16.5" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>4</v>
@@ -2869,31 +2877,31 @@
       <c r="C125" s="6">
         <v>26</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D125" s="7"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C126" s="6">
-        <v>27</v>
-      </c>
-      <c r="D126" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>36</v>
@@ -2901,16 +2909,14 @@
       <c r="C127" s="6">
         <v>27</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D127" s="7"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>36</v>
@@ -2918,14 +2924,16 @@
       <c r="C128" s="6">
         <v>27</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>36</v>
@@ -2940,7 +2948,7 @@
     </row>
     <row r="130" spans="1:7" ht="16.5" customHeight="1">
       <c r="A130" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>36</v>
@@ -2955,7 +2963,7 @@
     </row>
     <row r="131" spans="1:7" ht="16.5" customHeight="1">
       <c r="A131" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>36</v>
@@ -2970,7 +2978,7 @@
     </row>
     <row r="132" spans="1:7" ht="16.5" customHeight="1">
       <c r="A132" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>36</v>
@@ -2985,24 +2993,22 @@
     </row>
     <row r="133" spans="1:7" ht="16.5" customHeight="1">
       <c r="A133" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C133" s="6">
-        <v>28</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D133" s="7"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" customHeight="1">
       <c r="A134" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>4</v>
@@ -3010,14 +3016,16 @@
       <c r="C134" s="6">
         <v>28</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" customHeight="1">
       <c r="A135" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>4</v>
@@ -3032,10 +3040,10 @@
     </row>
     <row r="136" spans="1:7" ht="16.5" customHeight="1">
       <c r="A136" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C136" s="6">
         <v>28</v>
@@ -3047,10 +3055,10 @@
     </row>
     <row r="137" spans="1:7" ht="16.5" customHeight="1">
       <c r="A137" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C137" s="6">
         <v>28</v>
@@ -3062,7 +3070,7 @@
     </row>
     <row r="138" spans="1:7" ht="16.5" customHeight="1">
       <c r="A138" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>4</v>
@@ -3077,24 +3085,22 @@
     </row>
     <row r="139" spans="1:7" ht="16.5" customHeight="1">
       <c r="A139" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C139" s="6">
-        <v>29</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D139" s="7"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" customHeight="1">
       <c r="A140" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>36</v>
@@ -3102,14 +3108,16 @@
       <c r="C140" s="6">
         <v>29</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>36</v>
@@ -3124,7 +3132,7 @@
     </row>
     <row r="142" spans="1:7" ht="16.5" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>36</v>
@@ -3139,7 +3147,7 @@
     </row>
     <row r="143" spans="1:7" ht="16.5" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>36</v>
@@ -3154,30 +3162,28 @@
     </row>
     <row r="144" spans="1:7" ht="16.5" customHeight="1">
       <c r="A144" s="5" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C144" s="6">
-        <v>30</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D144" s="7"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" ht="16.5" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="C145" s="6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="1"/>
@@ -3186,22 +3192,24 @@
     </row>
     <row r="146" spans="1:7" ht="16.5" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C146" s="6">
-        <v>31</v>
-      </c>
-      <c r="D146" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" ht="16.5" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>4</v>
@@ -3216,7 +3224,7 @@
     </row>
     <row r="148" spans="1:7" ht="16.5" customHeight="1">
       <c r="A148" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>4</v>
@@ -3231,7 +3239,7 @@
     </row>
     <row r="149" spans="1:7" ht="16.5" customHeight="1">
       <c r="A149" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>4</v>
@@ -3239,19 +3247,21 @@
       <c r="C149" s="6">
         <v>31</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D149" s="7"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" ht="16.5" customHeight="1">
       <c r="A150" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="6">
+        <v>31</v>
+      </c>
       <c r="D150" s="7"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -3259,18 +3269,24 @@
     </row>
     <row r="151" spans="1:7" ht="16.5" customHeight="1">
       <c r="A151" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="6">
+        <v>31</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" ht="16.5" customHeight="1">
       <c r="A152" s="5" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -3281,7 +3297,7 @@
     </row>
     <row r="153" spans="1:7" ht="16.5" customHeight="1">
       <c r="A153" s="5" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>

--- a/Courses/ProjectSignUp.xlsx
+++ b/Courses/ProjectSignUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的坚果云\My_Work\1989chenguo.github.io\Courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/MyNutStore/My_Work/1989chenguo.github.io/Courses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559352D-3E64-410A-BA5E-74451BEA7993}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B3CAF-74EB-A64F-A8EB-12D256E53367}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="7095" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报名表" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="166">
   <si>
     <t>姓名 </t>
   </si>
@@ -518,6 +518,13 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长</t>
+    <rPh sb="0" eb="2">
+      <t>zu zhang</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -534,19 +541,23 @@
     <font>
       <sz val="9"/>
       <name val="PingFang SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="PingFang SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="PingFang SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="30"/>
       <color rgb="FFFE2C23"/>
       <name val="PingFang SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -947,14 +958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041410A3-A696-47D7-A0D7-3E745762DC13}">
   <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.19921875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="7" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
@@ -3288,9 +3299,15 @@
       <c r="A152" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="7"/>
+      <c r="B152" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" s="6">
+        <v>32</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
